--- a/src/main/java/com/crm/qa/testdata/Book1.xlsx
+++ b/src/main/java/com/crm/qa/testdata/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giriraj Pawar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HarshadaStudy\Selenium\SeleniumFrameworkTest\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A58C05-1DFD-491A-813F-71775B6974FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E42A78-1C8B-48AF-99A0-C74F9F0D670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC0A30F8-E7DD-43F9-A549-9BD471ED3D7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Fname</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Harshada</t>
-  </si>
-  <si>
     <t>Patil</t>
   </si>
   <si>
@@ -86,7 +83,25 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>dimple1</t>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Dimple</t>
+  </si>
+  <si>
+    <t>dimple12</t>
+  </si>
+  <si>
+    <t>max12</t>
   </si>
 </sst>
 </file>
@@ -469,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD605FEA-FE6D-4C70-8E7D-95369EFE771F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="P13" activeCellId="1" sqref="I3 P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,19 +529,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="F2">
         <v>145632</v>
@@ -538,15 +553,48 @@
         <v>456321</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>789654</v>
+      </c>
+      <c r="G3">
+        <v>123654789</v>
+      </c>
+      <c r="H3">
+        <v>123456</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{452F9FB1-87FE-4A6D-8FC6-90C79783722F}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{C247961F-04B1-4ACF-AD28-5AC1D0C40A87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/crm/qa/testdata/Book1.xlsx
+++ b/src/main/java/com/crm/qa/testdata/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HarshadaStudy\Selenium\SeleniumFrameworkTest\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E42A78-1C8B-48AF-99A0-C74F9F0D670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318EF0A-A02A-4BE1-B1F4-85B15448E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC0A30F8-E7DD-43F9-A549-9BD471ED3D7F}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>Dimple</t>
   </si>
   <si>
-    <t>dimple12</t>
-  </si>
-  <si>
-    <t>max12</t>
+    <t>dimple14</t>
+  </si>
+  <si>
+    <t>max14</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" activeCellId="1" sqref="I3 P13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/java/com/crm/qa/testdata/Book1.xlsx
+++ b/src/main/java/com/crm/qa/testdata/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HarshadaStudy\Selenium\SeleniumFrameworkTest\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318EF0A-A02A-4BE1-B1F4-85B15448E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7014FF-D856-4D81-A90D-06B86965C02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC0A30F8-E7DD-43F9-A549-9BD471ED3D7F}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>Dimple</t>
   </si>
   <si>
-    <t>dimple14</t>
-  </si>
-  <si>
-    <t>max14</t>
+    <t>dimple16</t>
+  </si>
+  <si>
+    <t>max16</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
